--- a/medicine/Enfance/Paul_Couturiau/Paul_Couturiau.xlsx
+++ b/medicine/Enfance/Paul_Couturiau/Paul_Couturiau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Couturiau, né le 27 juillet 1952 à Bruxelles (province de Brabant), est un écrivain belge de langue française. Il a commencé par s'illustrer dans le roman policier. Son premier roman Boulevard des Ombres a remporté le grand prix de littérature policière 1993. Il publie également des romans historiques : le premier, Le Paravent de Soie Rouge, a remporté le prix des Maisons de la Presse 2002; et des biographies : la première a été sélectionnée pour le prix Femina essai.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Couturiau naît le 27 juillet 1952 à Bruxelles[1]. Fanatique de l'écriture, il l'a abordée par de nombreuses facettes : la traduction scientifique et littéraire, le théâtre, le roman, la bande dessinée mais aussi la publicité ; celle-ci constitue d'ailleurs sa formation de base[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Couturiau naît le 27 juillet 1952 à Bruxelles. Fanatique de l'écriture, il l'a abordée par de nombreuses facettes : la traduction scientifique et littéraire, le théâtre, le roman, la bande dessinée mais aussi la publicité ; celle-ci constitue d'ailleurs sa formation de base.
 Au début des années 1970, il est à l'origine de la création d'une troupe de théâtre amateur, qui a ensuite été invitée à se produire au petit Théâtre de l'Île Saint-Louis, à deux pas de la Grand-Place de Bruxelles. Parmi ses créations, un spectacle consacré à Boris Vian, Un mort Bien Vian, lequel a été créé au "44", une discothèque située dans le parking du Passage 44, en présence d'Ursula Kubler, seconde épouse - et ourson - de Boris Vian.
 Pendant vingt ans, il collabore avec les Éditions du Rocher. Il est d'abord conseiller littéraire et traducteur, ce qui lui permet de traduire de nombreux auteurs anglo-saxons par exemple Mary Shelley, Somerset Maugham et Paul Pines.
-Amené par son métier à faire de nombreux séjours aux États-Unis, il tombe amoureux de ce grand pays en particulier les villes de New York et San Francisco[1]. 
-De janvier 1991 à juin 1992, il dirige les éditions Claude Lefrancq[1], avant d'être rappelé à Paris par les Éditions du Rocher, pour y prendre la direction d'une collection, puis d'un département.
+Amené par son métier à faire de nombreux séjours aux États-Unis, il tombe amoureux de ce grand pays en particulier les villes de New York et San Francisco. 
+De janvier 1991 à juin 1992, il dirige les éditions Claude Lefrancq, avant d'être rappelé à Paris par les Éditions du Rocher, pour y prendre la direction d'une collection, puis d'un département.
 En 2002, il rejoint, comme auteur, les Presses de la Cité. Ses livres sont également publiés par les Éditions Feryane, France Loisirs, Belgique Loisirs, Pocket et Reader's Digest.
 De mars 2006 à mai 2010, il vit au Vietnam, où son roman Paradis Perdu est traduit. En mai 2010, il revient à Bruxelles, où il continue à collaborer avec les Presses de la Cité.
 En juin 2013, Paul Couturiau s'installe dans la région messine. Sa rencontre avec Patrick Basso, réalisateur lorrain, lui permet de s'essayer à une forme d'écriture à laquelle il ne s'était pas encore frotté. Il écrit ainsi le scénario de plusieurs documentaires (Robert Schuman, l'Europe en héritage, 1870, la chute d'un Empire, Jean-Marie Pelt, le jardinier du bon Dieu, La Rocambolesque Histoire des vases de Yutz) et d'un long métrage policier : Le Mort de la Cour d'Or.
-En 2021, il est lauréat d’une bourse d'appoint de la Fédération Wallonie-Bruxelles[2].
+En 2021, il est lauréat d’une bourse d'appoint de la Fédération Wallonie-Bruxelles.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis août 2018, il vit au cœur de Metz. Il a trois fils. L'aîné vit à Paris et il élève seul les deux plus jeunes.
 </t>
@@ -583,14 +599,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Littérature
-1991 : Boulevard des Ombres (Éd. Lefrancq- Éd. du Rocher), Éditions Otago (2020),grand prix de littérature policière[2] 1993.
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1991 : Boulevard des Ombres (Éd. Lefrancq- Éd. du Rocher), Éditions Otago (2020),grand prix de littérature policière 1993.
 1992 : Blues pour Mary Jane (Éd. du Rocher), Éditions Otago (2020)
 1996 : La Folie Halloween (Éd. du Rocher)
 1999 : La Justice de Salomon (Éd. Murder Inc.)
 2001 : Les Damnés de l’Éden (Éd. du Rocher),Sélectionné pour le prix Polar.
 2001 : Séverine, l’insurgée (Éd. du Rocher)  (ISBN 9782268040547),Biographie sélectionnée pour le prix Femina essai et pour le prix Cazes 2001.
-2002 : Le Paravent de soie rouge (Éd. Presses de la Cité)  (ISBN 9782744157943),prix des Maisons de la Presse 2002[2].
+2002 : Le Paravent de soie rouge (Éd. Presses de la Cité)  (ISBN 9782744157943),prix des Maisons de la Presse 2002.
 2003 :
 En passant par la Lorraine (Éd. Presses de la Cité)  (ISBN 9782702888520)
 Le Paravent déchiré (Éd. Presses de la Cité)  (ISBN 9782744165412)
@@ -615,17 +636,7 @@
 2020 : La Porte de l'enfer (Éd. Otago)  (ISBN 978-2379-920325)
 2022 : Savannah, Géorgie, une si jolie scène de crime, (Éd. Sept.ch)  (ISBN 978-2940-625468)
 2023 : Circus, (Éd. Otago)  (ISBN 978-2379-920745)
-2024 : Les Disparus de la Cour d'Or (Éd. Presse de la cité)  (ISBN 9782258204201)
-Traductions
-1988 : Frankenstein ou Le prométhée moderne, Éditions du Rocher.
-2024 : William Somerset Maugham, The Summing Up (Mémoires), 1938 ; trad. fr. avec Sabine Delattre, préf. Hector Bianciotti, Paris, Les Belles Lettres, coll. Domaine étranger, 340 p.  (ISBN 978-2251455426)
-Romans pour la jeunesse
-1992 : Andrew Jackson, vie et mort d’une légende (Éd. Duculot) Sélectionné pour le prix de la PEEP, le prix Saint-Exupéry et le prix du Salon jeunesse de Montreuil
-1997 : Protection des Mineurs (Éd. Casterman)
-1997 : La Disquette volée (Je bouquine – Éd. Bayard Presse)
-Scénarios de bande dessinée
-1 Sombre Mardi gras[3], Claude Lefrancq, coll. « BDEvasion », Bruxelles, novembre 1991Scénario : Paul Couturiau - Dessin : Angelo Di Marco - Couleurs : noir et blanc -  (ISBN 2871530750)
-Le Dernier des Mohicans, Claude Lefrancq, coll. « BDEcrivain », Bruxelles, août 1992Scénario : Paul Couturiau - Dessin : Ersel - Couleurs : Vera Bohnen -  (ISBN 2871531226),Adaptation de James Fenimore Cooper.</t>
+2024 : Les Disparus de la Cour d'Or (Éd. Presse de la cité)  (ISBN 9782258204201)</t>
         </is>
       </c>
     </row>
@@ -650,21 +661,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Œuvres</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Scénariste
-Télévision
-2013 : Robert Schuman, l'Europe en héritage de Patrick Basso
-2014 : 1870, la chute d'un Empire de Patrick Basso
-2016 : Jean-Marie Pelt, le jardinier du Bon Dieu[4] avec Dominique Hennequin de Patrick Basso
-2017 : La Rocambolesque Histoire des vases de Yutz de Patrick Basso
-2020 : Malbrouck s'en va-t'en guerre ou l'histoire d'un château en Lorraine de Patrick Basso
-2021 : Journal d'un exil de Patrick Basso
-Cinéma
-2015 : Le Mort de la Cour d'Or[5] de Patrick Basso.</t>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1988 : Frankenstein ou Le prométhée moderne, Éditions du Rocher.
+2024 : William Somerset Maugham, The Summing Up (Mémoires), 1938 ; trad. fr. avec Sabine Delattre, préf. Hector Bianciotti, Paris, Les Belles Lettres, coll. Domaine étranger, 340 p.  (ISBN 978-2251455426)</t>
         </is>
       </c>
     </row>
@@ -689,14 +698,177 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1992 : Andrew Jackson, vie et mort d’une légende (Éd. Duculot) Sélectionné pour le prix de la PEEP, le prix Saint-Exupéry et le prix du Salon jeunesse de Montreuil
+1997 : Protection des Mineurs (Éd. Casterman)
+1997 : La Disquette volée (Je bouquine – Éd. Bayard Presse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénarios de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1 Sombre Mardi gras, Claude Lefrancq, coll. « BDEvasion », Bruxelles, novembre 1991Scénario : Paul Couturiau - Dessin : Angelo Di Marco - Couleurs : noir et blanc -  (ISBN 2871530750)
+Le Dernier des Mohicans, Claude Lefrancq, coll. « BDEcrivain », Bruxelles, août 1992Scénario : Paul Couturiau - Dessin : Ersel - Couleurs : Vera Bohnen -  (ISBN 2871531226),Adaptation de James Fenimore Cooper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2013 : Robert Schuman, l'Europe en héritage de Patrick Basso
+2014 : 1870, la chute d'un Empire de Patrick Basso
+2016 : Jean-Marie Pelt, le jardinier du Bon Dieu avec Dominique Hennequin de Patrick Basso
+2017 : La Rocambolesque Histoire des vases de Yutz de Patrick Basso
+2020 : Malbrouck s'en va-t'en guerre ou l'histoire d'un château en Lorraine de Patrick Basso
+2021 : Journal d'un exil de Patrick Basso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2015 : Le Mort de la Cour d'Or de Patrick Basso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Couturiau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand prix de littérature policière 1993 pour Boulevard des ombres[2] ;
- prix des Maisons de la Presse 2002 pour Le Paravent de soie rouge[2] ;
- prix des Conseils Généraux de Lorraine 2011[6].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand prix de littérature policière 1993 pour Boulevard des ombres ;
+ prix des Maisons de la Presse 2002 pour Le Paravent de soie rouge ;
+ prix des Conseils Généraux de Lorraine 2011.</t>
         </is>
       </c>
     </row>
